--- a/Manuscript/Table1.Positive_set.xlsx
+++ b/Manuscript/Table1.Positive_set.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="24960" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25660" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
-  <si>
-    <t>experimentally verified gene clusters data set</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>N</t>
   </si>
@@ -225,9 +222,6 @@
     <t>AJ580915</t>
   </si>
   <si>
-    <t>14.5kb</t>
-  </si>
-  <si>
     <t>Leucil-tRNA synthetase</t>
   </si>
   <si>
@@ -268,13 +262,52 @@
   </si>
   <si>
     <t>Table 1. experimentally verified gene clusters data set</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>14.5kb or 12kb?</t>
+  </si>
+  <si>
+    <t>Housekeeping copy</t>
+  </si>
+  <si>
+    <t>Identified with target_ks tandem 10kb cutoff</t>
+  </si>
+  <si>
+    <t>Identified with target_ks tandem 20kb cutoff</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1/possibly 2</t>
+  </si>
+  <si>
+    <t>http://linkinghub.elsevier.com/retrieve/pii/S1074-5521(10)00345-5</t>
+  </si>
+  <si>
+    <t>the other copy has lower than 30% seq identity  (23)</t>
+  </si>
+  <si>
+    <t>not complete genome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? /possibly 2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,13 +359,33 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -344,11 +397,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -383,7 +448,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -391,8 +455,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="14">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -723,415 +842,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="36"/>
+    <col min="12" max="12" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" ht="15"/>
+    <row r="2" spans="1:13" ht="44">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="22">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="15">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:13" s="24" customFormat="1" ht="15">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15">
+      <c r="I4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="24" customFormat="1" ht="15">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="23">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" ht="23">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="23">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" s="24" customFormat="1" ht="15">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="15">
+      <c r="A12" s="32">
+        <v>8</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="24" customFormat="1" ht="15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1" ht="15">
+      <c r="A14" s="23">
+        <v>9</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="16" customFormat="1" ht="15">
+      <c r="F14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="15" customFormat="1" ht="15">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" s="31" customFormat="1" ht="15">
+      <c r="A16" s="23">
+        <v>11</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="16" customFormat="1" ht="15">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" s="16" customFormat="1" ht="15">
+      <c r="F16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="15" customFormat="1" ht="15">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="15">
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="15">
-      <c r="B19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
